--- a/Hydrogen/Energobilance.xlsx
+++ b/Hydrogen/Energobilance.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofiia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sofiia\Documents\GitHub\ML\Hydrogen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7D593A-7931-4CBC-A33F-5D1CB82BE180}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F4A5E2-C55D-4FE3-AB01-4852985CA597}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7248" windowHeight="5628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Energobilance" sheetId="1" r:id="rId1"/>
-    <sheet name="SSO elektrotīkla patēriņi" sheetId="3" r:id="rId2"/>
-    <sheet name="Diennakts vidējais" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -647,6 +647,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -685,12 +691,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,7 +1010,7 @@
   <dimension ref="B2:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,61 +1023,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:21" ht="37.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="32"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="34"/>
     </row>
     <row r="5" spans="2:21" ht="61.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="34"/>
-      <c r="C5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="30" t="s">
         <v>67</v>
       </c>
       <c r="D6" s="6">
@@ -1205,7 +1205,7 @@
       <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="7">
@@ -1358,7 +1358,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,31 +1370,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
     </row>
     <row r="2" spans="1:15" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="22" t="s">
         <v>44</v>
       </c>
@@ -1724,22 +1724,22 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="1:28" ht="18" x14ac:dyDescent="0.3">
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
     </row>
     <row r="4" spans="1:28" ht="36" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
